--- a/mst.xlsx
+++ b/mst.xlsx
@@ -2,19 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esandstrom/Desktop/OU/FALL_23_S/cs_4040_A/hw5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C09368F-2FFA-C040-9283-DFD53EE7BDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B8DBC7-64F0-7F43-A169-71F99D79100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{BA102956-8738-8D48-9019-1064745327A5}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" activeTab="2" xr2:uid="{BA102956-8738-8D48-9019-1064745327A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,21 +48,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Prim's</t>
   </si>
   <si>
-    <t>Input</t>
+    <t># vertices</t>
   </si>
   <si>
-    <t>Time(sec)</t>
+    <t>Kruskal's</t>
   </si>
   <si>
-    <t>After optimization</t>
+    <t>Kruskal optimized</t>
   </si>
   <si>
-    <t>Time (sec)</t>
+    <t>Ethan Sandstrom</t>
+  </si>
+  <si>
+    <t>CS 4040</t>
+  </si>
+  <si>
+    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -103,6 +121,1213 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minimum Spanning Tree Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prim's</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6950000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5274E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18157300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71142899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F71B-CF45-AD03-D95E2DEDD31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kruskal's</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7669999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0475999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16164999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F71B-CF45-AD03-D95E2DEDD31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kruskal optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.351E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5490000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9855E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F71B-CF45-AD03-D95E2DEDD31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="646013823"/>
+        <c:axId val="949191567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="646013823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949191567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949191567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646013823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6AA822-F19F-9A59-53F7-71587CC13460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,108 +1626,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2A5033-00C9-3149-84ED-2A320804C8D2}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B04D65-10DB-3542-8C41-D435FF2F70C8}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EC775D-1309-E445-BE59-863744DD9F8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2A5033-00C9-3149-84ED-2A320804C8D2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>5.6899999999999995E-4</v>
+      </c>
+      <c r="D2">
+        <v>5.0299999999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>4.6950000000000004E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.7669999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.351E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>3.5274E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.3202E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.5490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>0.18157300000000001</v>
+      </c>
+      <c r="C5">
+        <v>4.0475999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9855E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1600</v>
+      </c>
+      <c r="B6">
+        <v>0.71142899999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.16164999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.105198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>150</v>
-      </c>
-      <c r="B3">
-        <v>0.115</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-      <c r="E3">
-        <v>4.9127999999999998E-2</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>0.34436299999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1200</v>
-      </c>
-      <c r="B5">
-        <v>14.259</v>
-      </c>
-      <c r="D5">
-        <v>1200</v>
-      </c>
-      <c r="E5">
-        <v>6.97004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3200</v>
-      </c>
-      <c r="B6">
-        <v>160.739</v>
-      </c>
-      <c r="D6">
-        <v>3200</v>
-      </c>
-      <c r="E6">
-        <v>79.367800000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6400</v>
-      </c>
-      <c r="B7">
-        <v>1298.76</v>
-      </c>
-      <c r="D7">
-        <v>6400</v>
-      </c>
-      <c r="E7">
-        <v>633.04200000000003</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mst.xlsx
+++ b/mst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esandstrom/Desktop/OU/FALL_23_S/cs_4040_A/hw5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B8DBC7-64F0-7F43-A169-71F99D79100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1C3E5-E347-A343-848E-F8E3DE464968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" activeTab="2" xr2:uid="{BA102956-8738-8D48-9019-1064745327A5}"/>
   </bookViews>
@@ -17,16 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Prim's</t>
   </si>
@@ -63,12 +53,6 @@
   </si>
   <si>
     <t>Ethan Sandstrom</t>
-  </si>
-  <si>
-    <t>CS 4040</t>
-  </si>
-  <si>
-    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -1331,9 +1315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1371,7 +1355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1477,7 +1461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1619,7 +1603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1655,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2A5033-00C9-3149-84ED-2A320804C8D2}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,16 +1740,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
